--- a/public/mechanic_import_template.xlsx
+++ b/public/mechanic_import_template.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="19095" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>北京</t>
   </si>
@@ -24,40 +27,377 @@
   <si>
     <t>李阳</t>
   </si>
+  <si>
+    <t>汽车堂联盟20033店</t>
+  </si>
+  <si>
+    <t>L30Y10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -80,50 +420,393 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -322,8 +1005,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -343,20 +1024,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -373,8 +1053,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -399,8 +1078,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -425,8 +1103,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -451,8 +1128,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -477,8 +1153,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -503,8 +1178,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -529,8 +1203,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -555,8 +1228,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -581,8 +1253,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -595,9 +1266,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -611,8 +1288,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -632,8 +1307,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -658,8 +1332,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -684,8 +1357,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -710,8 +1382,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -736,8 +1407,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -762,8 +1432,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -788,8 +1457,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -814,8 +1482,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -840,8 +1507,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -866,8 +1532,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -880,9 +1545,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -893,8 +1564,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -914,20 +1583,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -944,8 +1612,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,8 +1637,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,8 +1662,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,8 +1687,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,8 +1712,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1074,8 +1737,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1100,8 +1762,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,8 +1787,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,8 +1812,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1166,56 +1825,71 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.73438" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5781" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5781" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8672" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.73333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.575" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.575" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8666666666667" style="1" customWidth="1"/>
     <col min="7" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.35" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="15.35" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3">
         <v>15901020304</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/public/mechanic_import_template.xlsx
+++ b/public/mechanic_import_template.xlsx
@@ -39,10 +39,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -50,6 +50,110 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -60,33 +164,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,72 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -172,14 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -187,21 +202,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -212,181 +212,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,10 +421,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -445,54 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -507,17 +518,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -526,10 +526,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,133 +538,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1845,23 +1845,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.73333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="56.575" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.575" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.8666666666667" style="1" customWidth="1"/>
-    <col min="7" max="256" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
+    <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.35" customHeight="1" spans="1:8">
+    <row r="1" ht="15.35" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1878,13 +1879,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="3">
-        <v>15901020304</v>
+        <v>15901020305</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/mechanic_import_template.xlsx
+++ b/public/mechanic_import_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>北京</t>
   </si>
@@ -33,16 +33,19 @@
   <si>
     <t>L30Y10</t>
   </si>
+  <si>
+    <t>李阳2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -54,6 +57,44 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -67,15 +108,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,14 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,99 +205,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -212,187 +215,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,48 +424,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -480,11 +441,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,17 +478,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,148 +526,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1845,13 +1848,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.73333333333333" style="1" customWidth="1"/>
@@ -1879,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3">
-        <v>15901020305</v>
+        <v>15901020309</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1891,6 +1894,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" ht="15.35" customHeight="1" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3">
+        <v>15901020311</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/public/mechanic_import_template.xlsx
+++ b/public/mechanic_import_template.xlsx
@@ -42,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -239,6 +239,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -287,6 +293,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,6 +311,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,43 +377,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,10 +529,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,13 +544,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,112 +562,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1851,7 +1851,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" outlineLevelRow="1"/>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.35" customHeight="1" spans="1:9">
+    <row r="2" ht="15.35" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1919,9 +1919,6 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/public/mechanic_import_template.xlsx
+++ b/public/mechanic_import_template.xlsx
@@ -42,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1851,7 +1851,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" outlineLevelRow="1"/>

--- a/public/mechanic_import_template.xlsx
+++ b/public/mechanic_import_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>北京</t>
   </si>
@@ -34,7 +34,13 @@
     <t>L30Y10</t>
   </si>
   <si>
+    <t>联系人</t>
+  </si>
+  <si>
     <t>李阳2</t>
+  </si>
+  <si>
+    <t>联系人2</t>
   </si>
 </sst>
 </file>
@@ -42,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -56,7 +62,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -71,7 +145,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
@@ -79,16 +153,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,14 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -117,89 +206,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
@@ -215,6 +221,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -233,31 +281,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,102 +378,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,17 +430,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,16 +450,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -474,26 +476,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +503,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -529,55 +535,55 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -586,88 +592,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1848,10 +1854,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" outlineLevelRow="1"/>
@@ -1865,7 +1871,7 @@
     <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.35" customHeight="1" spans="1:9">
+    <row r="1" ht="15.35" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3">
-        <v>15901020309</v>
+        <v>15901020312</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1893,8 +1899,11 @@
       <c r="I1" s="1">
         <v>1</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="15.35" customHeight="1" spans="1:8">
+    <row r="2" ht="15.35" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1908,16 +1917,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3">
-        <v>15901020311</v>
+        <v>15901020313</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/mechanic_import_template.xlsx
+++ b/public/mechanic_import_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12210"/>
+    <workbookView windowWidth="18480" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>北京</t>
   </si>
@@ -25,19 +25,13 @@
     <t>海淀区中关村软件园</t>
   </si>
   <si>
-    <t>李阳</t>
+    <t>李阳2</t>
   </si>
   <si>
     <t>汽车堂联盟20033店</t>
   </si>
   <si>
     <t>L30Y10</t>
-  </si>
-  <si>
-    <t>联系人</t>
-  </si>
-  <si>
-    <t>李阳2</t>
   </si>
   <si>
     <t>联系人2</t>
@@ -48,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -416,16 +410,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,14 +671,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1854,83 +1854,301 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.73333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.575" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.575" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
-    <col min="8" max="256" width="9" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.73333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.575" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.575" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.8666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="2" customWidth="1"/>
+    <col min="8" max="256" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.35" customHeight="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="15.35" customHeight="1" spans="1:256">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3">
-        <v>15901020312</v>
+      <c r="F1" s="4">
+        <v>15901020313</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
+      <c r="CC1" s="5"/>
+      <c r="CD1" s="5"/>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="5"/>
+      <c r="CG1" s="5"/>
+      <c r="CH1" s="5"/>
+      <c r="CI1" s="5"/>
+      <c r="CJ1" s="5"/>
+      <c r="CK1" s="5"/>
+      <c r="CL1" s="5"/>
+      <c r="CM1" s="5"/>
+      <c r="CN1" s="5"/>
+      <c r="CO1" s="5"/>
+      <c r="CP1" s="5"/>
+      <c r="CQ1" s="5"/>
+      <c r="CR1" s="5"/>
+      <c r="CS1" s="5"/>
+      <c r="CT1" s="5"/>
+      <c r="CU1" s="5"/>
+      <c r="CV1" s="5"/>
+      <c r="CW1" s="5"/>
+      <c r="CX1" s="5"/>
+      <c r="CY1" s="5"/>
+      <c r="CZ1" s="5"/>
+      <c r="DA1" s="5"/>
+      <c r="DB1" s="5"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
+      <c r="DE1" s="5"/>
+      <c r="DF1" s="5"/>
+      <c r="DG1" s="5"/>
+      <c r="DH1" s="5"/>
+      <c r="DI1" s="5"/>
+      <c r="DJ1" s="5"/>
+      <c r="DK1" s="5"/>
+      <c r="DL1" s="5"/>
+      <c r="DM1" s="5"/>
+      <c r="DN1" s="5"/>
+      <c r="DO1" s="5"/>
+      <c r="DP1" s="5"/>
+      <c r="DQ1" s="5"/>
+      <c r="DR1" s="5"/>
+      <c r="DS1" s="5"/>
+      <c r="DT1" s="5"/>
+      <c r="DU1" s="5"/>
+      <c r="DV1" s="5"/>
+      <c r="DW1" s="5"/>
+      <c r="DX1" s="5"/>
+      <c r="DY1" s="5"/>
+      <c r="DZ1" s="5"/>
+      <c r="EA1" s="5"/>
+      <c r="EB1" s="5"/>
+      <c r="EC1" s="5"/>
+      <c r="ED1" s="5"/>
+      <c r="EE1" s="5"/>
+      <c r="EF1" s="5"/>
+      <c r="EG1" s="5"/>
+      <c r="EH1" s="5"/>
+      <c r="EI1" s="5"/>
+      <c r="EJ1" s="5"/>
+      <c r="EK1" s="5"/>
+      <c r="EL1" s="5"/>
+      <c r="EM1" s="5"/>
+      <c r="EN1" s="5"/>
+      <c r="EO1" s="5"/>
+      <c r="EP1" s="5"/>
+      <c r="EQ1" s="5"/>
+      <c r="ER1" s="5"/>
+      <c r="ES1" s="5"/>
+      <c r="ET1" s="5"/>
+      <c r="EU1" s="5"/>
+      <c r="EV1" s="5"/>
+      <c r="EW1" s="5"/>
+      <c r="EX1" s="5"/>
+      <c r="EY1" s="5"/>
+      <c r="EZ1" s="5"/>
+      <c r="FA1" s="5"/>
+      <c r="FB1" s="5"/>
+      <c r="FC1" s="5"/>
+      <c r="FD1" s="5"/>
+      <c r="FE1" s="5"/>
+      <c r="FF1" s="5"/>
+      <c r="FG1" s="5"/>
+      <c r="FH1" s="5"/>
+      <c r="FI1" s="5"/>
+      <c r="FJ1" s="5"/>
+      <c r="FK1" s="5"/>
+      <c r="FL1" s="5"/>
+      <c r="FM1" s="5"/>
+      <c r="FN1" s="5"/>
+      <c r="FO1" s="5"/>
+      <c r="FP1" s="5"/>
+      <c r="FQ1" s="5"/>
+      <c r="FR1" s="5"/>
+      <c r="FS1" s="5"/>
+      <c r="FT1" s="5"/>
+      <c r="FU1" s="5"/>
+      <c r="FV1" s="5"/>
+      <c r="FW1" s="5"/>
+      <c r="FX1" s="5"/>
+      <c r="FY1" s="5"/>
+      <c r="FZ1" s="5"/>
+      <c r="GA1" s="5"/>
+      <c r="GB1" s="5"/>
+      <c r="GC1" s="5"/>
+      <c r="GD1" s="5"/>
+      <c r="GE1" s="5"/>
+      <c r="GF1" s="5"/>
+      <c r="GG1" s="5"/>
+      <c r="GH1" s="5"/>
+      <c r="GI1" s="5"/>
+      <c r="GJ1" s="5"/>
+      <c r="GK1" s="5"/>
+      <c r="GL1" s="5"/>
+      <c r="GM1" s="5"/>
+      <c r="GN1" s="5"/>
+      <c r="GO1" s="5"/>
+      <c r="GP1" s="5"/>
+      <c r="GQ1" s="5"/>
+      <c r="GR1" s="5"/>
+      <c r="GS1" s="5"/>
+      <c r="GT1" s="5"/>
+      <c r="GU1" s="5"/>
+      <c r="GV1" s="5"/>
+      <c r="GW1" s="5"/>
+      <c r="GX1" s="5"/>
+      <c r="GY1" s="5"/>
+      <c r="GZ1" s="5"/>
+      <c r="HA1" s="5"/>
+      <c r="HB1" s="5"/>
+      <c r="HC1" s="5"/>
+      <c r="HD1" s="5"/>
+      <c r="HE1" s="5"/>
+      <c r="HF1" s="5"/>
+      <c r="HG1" s="5"/>
+      <c r="HH1" s="5"/>
+      <c r="HI1" s="5"/>
+      <c r="HJ1" s="5"/>
+      <c r="HK1" s="5"/>
+      <c r="HL1" s="5"/>
+      <c r="HM1" s="5"/>
+      <c r="HN1" s="5"/>
+      <c r="HO1" s="5"/>
+      <c r="HP1" s="5"/>
+      <c r="HQ1" s="5"/>
+      <c r="HR1" s="5"/>
+      <c r="HS1" s="5"/>
+      <c r="HT1" s="5"/>
+      <c r="HU1" s="5"/>
+      <c r="HV1" s="5"/>
+      <c r="HW1" s="5"/>
+      <c r="HX1" s="5"/>
+      <c r="HY1" s="5"/>
+      <c r="HZ1" s="5"/>
+      <c r="IA1" s="5"/>
+      <c r="IB1" s="5"/>
+      <c r="IC1" s="5"/>
+      <c r="ID1" s="5"/>
+      <c r="IE1" s="5"/>
+      <c r="IF1" s="5"/>
+      <c r="IG1" s="5"/>
+      <c r="IH1" s="5"/>
+      <c r="II1" s="5"/>
+      <c r="IJ1" s="5"/>
+      <c r="IK1" s="5"/>
+      <c r="IL1" s="5"/>
+      <c r="IM1" s="5"/>
+      <c r="IN1" s="5"/>
+      <c r="IO1" s="5"/>
+      <c r="IP1" s="5"/>
+      <c r="IQ1" s="5"/>
+      <c r="IR1" s="5"/>
+      <c r="IS1" s="5"/>
+      <c r="IT1" s="5"/>
+      <c r="IU1" s="5"/>
+      <c r="IV1" s="5"/>
     </row>
-    <row r="2" ht="15.35" customHeight="1" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3">
-        <v>15901020313</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="12" customHeight="1" spans="7:7">
+      <c r="G12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/public/mechanic_import_template.xlsx
+++ b/public/mechanic_import_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>北京</t>
   </si>
@@ -42,6 +42,9 @@
     <t>李阳3</t>
   </si>
   <si>
+    <t>联系人</t>
+  </si>
+  <si>
     <t>联系人3</t>
   </si>
 </sst>
@@ -50,8 +53,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -77,6 +80,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -85,32 +126,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,25 +171,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,30 +180,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,7 +195,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,21 +203,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +226,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,175 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,41 +417,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,7 +439,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +492,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -505,15 +517,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,145 +525,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,7 +1001,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1029,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3">
-        <v>15901020314</v>
+        <v>15901020316</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -1061,15 +1064,17 @@
         <v>7</v>
       </c>
       <c r="F2" s="3">
-        <v>15901020315</v>
+        <v>15901020317</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
